--- a/ws/excel/DJY4.xlsx
+++ b/ws/excel/DJY4.xlsx
@@ -418,8 +418,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -441,7 +441,7 @@
   </sheetPr>
   <dimension ref="A1:D996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A982" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A943" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
@@ -15408,941 +15408,947 @@
   </sheetPr>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="22.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="8.54"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="0" t="s">
+    <row r="28" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+    <row r="32" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+    <row r="33" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+    <row r="34" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+    <row r="35" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+    <row r="36" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+    <row r="37" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="0" t="s">
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+    <row r="38" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+    <row r="39" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+    <row r="40" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+    <row r="41" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+    <row r="42" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+    <row r="43" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+    <row r="44" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+    <row r="45" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+    <row r="46" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+    <row r="47" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="0" t="s">
+      <c r="B47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+    <row r="48" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+    <row r="49" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="B49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+    <row r="50" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+    <row r="51" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+    <row r="52" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+    <row r="53" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="B53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+    <row r="54" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="0" t="s">
+      <c r="B54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+    <row r="55" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+    <row r="56" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+    <row r="57" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="B57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+    <row r="58" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+    <row r="59" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="B59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+    <row r="60" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+    <row r="61" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="0" t="s">
+      <c r="B61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+    <row r="62" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+    <row r="63" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+    <row r="64" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="0" t="s">
+      <c r="B64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+    <row r="65" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+    <row r="66" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+    <row r="67" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+    <row r="68" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+    <row r="69" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+    <row r="70" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+    <row r="71" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="B71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+    <row r="72" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+    <row r="73" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="B73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+    <row r="74" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="0" t="s">
+      <c r="B74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+    <row r="75" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+    <row r="76" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="B76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+    <row r="77" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+    <row r="78" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="0" t="s">
+      <c r="B78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+    <row r="79" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+    <row r="80" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+    <row r="81" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="0" t="s">
+      <c r="B81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+    <row r="82" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+    <row r="83" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="0" t="s">
+      <c r="B83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+    <row r="84" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+    <row r="85" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="3" t="s">
         <v>75</v>
       </c>
     </row>
